--- a/data/financial_statements/sofp/PG.xlsx
+++ b/data/financial_statements/sofp/PG.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -482,2760 +596,2823 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>6854000000</v>
+      </c>
+      <c r="C2">
         <v>6710000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>7214000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8526000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>11544000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10370000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10288000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10007000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>11941000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>13392000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>16181000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>15393000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>6279000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>9304000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>10287000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>9823000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>12117000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>11253000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>11850000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>15534000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>18758000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>16007000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>15137000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>14327000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>13454000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>15941000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>13348000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>13819000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>14277000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>12606000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>11603000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>13160000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>12251000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>10846000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>10686000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>9752000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>8503000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>7702000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>5947000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>5876000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>5767000000</v>
+      </c>
+      <c r="C3">
         <v>5720000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5143000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>5513000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5241000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5662000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4725000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4861000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4819000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5043000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>4178000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>4640000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>5196000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>5143000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>4951000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>5198000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>5055000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>5035000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>4686000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>5149000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>5182000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>4942000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>4594000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>4358000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>4729000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>4713000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>4373000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>4591000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>4721000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>4724000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>4568000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>4990000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>5802000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>6197000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>6386000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>6353000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>6911000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>6555000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>6508000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>6669000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>7541000000</v>
+      </c>
+      <c r="C4">
         <v>7590000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>6924000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>7101000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6673000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6307000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5983000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>6002000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5957000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>5707000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>5498000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>5330000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>5521000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>5465000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>5017000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>5358000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>5281000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>5182000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>4738000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>5207000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>5131000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>5023000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>4624000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>4754000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>4787000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>4999000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>4716000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>4957000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>5125000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>5239000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>4979000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>5893000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>6477000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>7100000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>6759000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>7227000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>7379000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>7394000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>6909000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>7240000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>2501000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2372000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2276000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2087000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1997000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2095000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1738000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1938000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1884000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2130000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1777000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1921000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>7071000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>7185000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>7028000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>9223000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>9360000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>4432000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>3632000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>4153000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>134000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>2849000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>21866000000</v>
+      </c>
+      <c r="C6">
         <v>22521000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>21653000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>23416000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>25545000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>24336000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>23091000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>22608000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>24655000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>26026000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>27987000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>27140000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>18917000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>21925000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>22473000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>22312000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>24431000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>23346000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>23320000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>27960000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>31214000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>28096000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>26494000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>25885000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>25572000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>35171000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>33782000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>34317000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>36347000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>35620000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>29646000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>31562000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>33178000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>29107000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>31617000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>28126000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>27467000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>26322000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>23990000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>24298000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>21167000000</v>
+      </c>
+      <c r="C7">
         <v>20593000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>21195000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>21323000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21357000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>21392000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>21686000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>21103000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>21416000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>20876000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>20692000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>20459000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>21250000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>20901000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>21271000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>20993000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>20822000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>20590000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>20600000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>20925000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>20420000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>20108000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>19893000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>19219000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>18778000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>19310000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>19385000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>19186000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>18910000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>19081000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>19655000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>20043000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>20745000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>21799000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>22304000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>22274000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>22152000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>21876000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>21666000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>21191000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>93000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>140000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>153000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>154000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>160000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>192000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>132000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>70000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>66000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>67000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>50000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>64000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>63545000000</v>
+      </c>
+      <c r="C9">
         <v>62226000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>63379000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>64623000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>63853000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>63997000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>64566000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>64270000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>65245000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>64383000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>63693000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>63451000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>63978000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>63607000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>64488000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>72589000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>72879000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>69144000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>69077000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>70304000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>69848000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>69451000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>68886000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>67835000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>67643000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>68887000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>68877000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>69308000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>68652000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>69327000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>69632000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>73764000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>76442000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>81571000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>84547000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>87532000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>87888000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>87589000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>86760000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>86806000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>11137000000</v>
+      </c>
+      <c r="C10">
         <v>10942000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>10981000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>10855000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>10661000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9944000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>9964000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>8797000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>8796000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>8614000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>8328000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>7510000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>7578000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>7625000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>6863000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>5779000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>5555000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>5360000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>5313000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>5180000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>5162000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>5196000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>5133000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>5152000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>5040000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>5675000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>5092000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>4697000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>5234000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>5237000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>5358000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>5568000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>5898000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>5706000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>5798000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>5265000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>5420000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>5338000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>6847000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>6836000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>95849000000</v>
+      </c>
+      <c r="C11">
         <v>93761000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>95555000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>96801000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>95871000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>95333000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>96216000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>94170000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>95457000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>93873000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>92713000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>91420000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>92806000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>92133000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>92622000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>99361000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>99256000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>95094000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>94990000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>96409000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>95430000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>94755000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>93912000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>92206000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>91461000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>93872000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>93354000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>93191000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>92796000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>93645000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>99849000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>99375000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>103085000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>109076000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>112649000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>115071000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>115460000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>114803000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>115273000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>114833000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>117715000000</v>
+      </c>
+      <c r="C12">
         <v>116282000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>117208000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>120217000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>121416000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>119669000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>119307000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>116778000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>120112000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>119899000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>120700000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>118560000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>111723000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>114058000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>115095000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>121673000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>123687000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>118440000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>118310000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>124369000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>126644000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>122851000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>120406000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>118091000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>117033000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>129043000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>127136000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>127508000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>129143000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>129265000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>129495000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>130937000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>136263000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>138183000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>144266000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>143197000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>142927000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>141125000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>139263000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>139131000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>14153000000</v>
+      </c>
+      <c r="C13">
         <v>14845000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>14882000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>14175000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>14154000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>14223000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>13720000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>12134000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>12027000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>11935000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>12071000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>10464000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>10781000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>10951000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>11260000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>10207000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>10266000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>10243000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>10344000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>9716000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>9740000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>9458000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>9632000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>8076000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>8300000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>9024000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>9325000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>7795000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>7717000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>7758000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>8138000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>7285000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>7733000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>8280000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>8461000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>7512000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>7156000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>7489000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>8777000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>7422000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>10293000000</v>
+      </c>
+      <c r="C14">
         <v>10056000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>9554000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>10324000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>10542000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>10377000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>10523000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>11109000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>11131000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>10366000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>9722000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>9731000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>10230000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>9950000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>9054000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>9252000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>8868000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>8469000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>7470000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>8133000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>7820000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>7240000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>7024000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>7225000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>7584000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>8032000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>7449000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>7652000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>7945000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>8494000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>8091000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>8406000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>8853000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>9554000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>8999000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>9078000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>9480000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>9428000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>8828000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>8892000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>14300000000</v>
+      </c>
+      <c r="C15">
         <v>11717000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>8645000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>9902000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>13331000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>11989000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>8889000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>8773000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>8586000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>7707000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>11183000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>12701000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>9153000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>9352000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>9697000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>8911000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>12113000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>10508000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>10423000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>12862000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>15547000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>14026000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>13554000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>13781000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>13007000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>12215000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>11653000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>13681000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>13931000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>13093000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>12018000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>15075000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>16329000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>14228000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>15606000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>15528000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>14091000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>16300000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>12432000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>11098000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>10056000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>8762000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>10324000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>10542000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>10377000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>9667000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>11109000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>11131000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>10366000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>8790000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>9486000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>9979000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>3130000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>2343000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>2229000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>2460000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>2222000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1543000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1115000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1237000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>9000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>660000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>38746000000</v>
+      </c>
+      <c r="C17">
         <v>36618000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>33081000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>34401000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>38027000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>36589000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>33132000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>32016000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>31744000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>30008000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>32976000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>32896000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>30164000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>30253000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>30011000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>28370000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>31247000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>29220000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>28237000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>30711000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>33107000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>30724000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>30210000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>29082000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>28891000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>32401000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>30770000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>31357000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>32053000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>31567000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>29790000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>31881000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>34152000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>32071000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>33726000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>32118000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>30727000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>33217000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>30037000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>27412000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>20582000000</v>
+      </c>
+      <c r="C18">
         <v>21286000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>22848000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>23767000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>22322000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>20558000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>23099000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>21053000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>22514000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>23948000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>23537000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>23310000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>18985000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>20161000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>20395000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>21359000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>21514000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>20779000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>20863000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>22437000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>22186000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>20188000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>18038000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>16633000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>16460000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>18910000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>18945000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>19134000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>17595000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>17394000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>18327000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>17364000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>18124000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>19004000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>19811000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>20837000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>21517000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>18480000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>19111000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>21125000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>6462000000</v>
+      </c>
+      <c r="C19">
         <v>6986000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>6809000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>6543000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>6506000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>6323000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>6153000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>5977000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>6073000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>6294000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>6199000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>6309000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>6242000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>6325000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>6899000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>6951000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>6872000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>6179000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>6163000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>6083000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>6145000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>8481000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>8126000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>8644000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>8692000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>8515000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>9113000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>9161000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>9257000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>9224000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>9179000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>9808000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>9552000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>10271000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>10218000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>10913000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>10809000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>10853000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>10827000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>10725000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>7200000000</v>
+      </c>
+      <c r="C20">
         <v>7058000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>7616000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>9760000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>9668000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>9791000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>10269000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>10813000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>11241000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>11073000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>11110000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>10104000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>10424000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>10335000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>10211000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>9441000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>9611000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>9758000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>10164000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>10192000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>10485000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>8043000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>8254000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>9184000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>9246000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>10266000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>10325000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>8003000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>7936000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>8126000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>8432000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>8504000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>9623000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>10008000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>10535000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>9288000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>9736000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>9759000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>10579000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>11916000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>34244000000</v>
+      </c>
+      <c r="C21">
         <v>35330000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>37273000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>40070000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>38496000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>36672000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>39521000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>37843000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>39828000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>41315000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>40846000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>39723000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>35651000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>36821000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>37505000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>37751000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>37997000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>36716000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>37190000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>38712000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>38816000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>36712000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>34418000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>34461000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>34398000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>37691000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>38383000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>36298000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>34788000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>34744000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>36655000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>35676000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>37299000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>39283000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>40564000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>41038000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>42062000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>39092000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>40517000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>43766000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>72990000000</v>
+      </c>
+      <c r="C22">
         <v>71948000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>70354000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>74471000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>76523000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>73261000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>72653000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>69859000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>71572000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>71323000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>73822000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>72619000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>65815000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>67074000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>67516000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>66121000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>69244000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>65936000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>65427000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>69423000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>71923000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>67436000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>64628000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>63543000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>63289000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>70092000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>69153000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>67655000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>66841000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>66311000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>66445000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>67557000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>71451000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>71354000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>74290000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>73156000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>72789000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>72309000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>70554000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>71178000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>66145000000</v>
+      </c>
+      <c r="C23">
         <v>65955000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>65795000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>65614000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>65432000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>65148000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>64848000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>64682000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>64672000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>64467000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>64194000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>63976000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>64019000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>63949000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>63827000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>63624000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>63679000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>63711000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>63846000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>63717000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>63757000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>63705000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>63641000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>63513000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>63596000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>63553000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>63714000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>63617000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>63751000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>63728000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>63852000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>63841000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>63814000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>64028000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>63911000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>63780000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>63726000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>63638000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>63538000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>63358000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>831000000</v>
+      </c>
+      <c r="C24">
         <v>834000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>843000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>846000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>856000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>859000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>870000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>873000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>885000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>888000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>897000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>900000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>911000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>915000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>928000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>933000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>946000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>951000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>967000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>972000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>986000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>991000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>1006000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1010000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>1024000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>1029000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>5047000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1043000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>1062000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>1067000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>1077000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1086000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>1094000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>1102000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>1111000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>1115000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>1125000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>1128000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>1137000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1143000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>4009000000</v>
@@ -3354,1224 +3531,1257 @@
       <c r="AN25">
         <v>4009000000</v>
       </c>
+      <c r="AO25">
+        <v>4009000000</v>
+      </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>115858000000</v>
+      </c>
+      <c r="C26">
         <v>114163000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>112429000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>111645000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>110393000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>108361000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>106374000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>105674000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>104361000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>102539000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>100239000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>99474000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>98414000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>96625000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>94918000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>102103000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>101170000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>99831000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>98641000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>98623000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>97881000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>97197000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>96124000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>95736000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>94945000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>88855000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>87953000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>87849000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>86917000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>85579000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>84807000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>86157000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>85770000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>85207000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>84990000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>84220000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>83280000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>81534000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>80197000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>80035000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>129012000000</v>
+      </c>
+      <c r="C27">
         <v>127205000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>123382000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>122272000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>121543000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>117240000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>114973000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>112147000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>109583000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>106794000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>105573000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>105823000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>105761000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>102510000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>100406000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>99484000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>99480000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>99956000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>99217000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>97912000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>97121000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>95563000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>93715000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>93225000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>92720000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>81970000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>82176000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>82400000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>78469000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>77044000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>77226000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>77190000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>77905000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>77149000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>75805000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>75869000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>75048000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>74145000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>71966000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>71644000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
         <v>-870000000</v>
       </c>
       <c r="C28">
-        <v>-916000000</v>
+        <v>-870000000</v>
       </c>
       <c r="D28">
         <v>-916000000</v>
       </c>
       <c r="E28">
+        <v>-916000000</v>
+      </c>
+      <c r="F28">
         <v>-965000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-964000000</v>
-      </c>
-      <c r="G28">
-        <v>-1006000000</v>
       </c>
       <c r="H28">
         <v>-1006000000</v>
       </c>
       <c r="I28">
+        <v>-1006000000</v>
+      </c>
+      <c r="J28">
         <v>-1072000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-1046000000</v>
-      </c>
-      <c r="K28">
-        <v>-1080000000</v>
       </c>
       <c r="L28">
         <v>-1080000000</v>
       </c>
       <c r="M28">
-        <v>-1112000000</v>
+        <v>-1080000000</v>
       </c>
       <c r="N28">
         <v>-1112000000</v>
       </c>
       <c r="O28">
+        <v>-1112000000</v>
+      </c>
+      <c r="P28">
         <v>-1146000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-1145000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-1178000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-1177000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-1204000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-1203000000</v>
-      </c>
-      <c r="U28">
-        <v>-1229000000</v>
       </c>
       <c r="V28">
         <v>-1229000000</v>
       </c>
       <c r="W28">
+        <v>-1229000000</v>
+      </c>
+      <c r="X28">
         <v>-1249000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-1248000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-1272000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-1271000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-1290000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-1289000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-1308000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-1306000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-1320000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-1319000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-1332000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-1331000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-1340000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-1339000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-1348000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-1346000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-1352000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-1351000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>43894000000</v>
+      </c>
+      <c r="C29">
         <v>43500000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>46011000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>44900000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>44037000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>45549000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>45784000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>46046000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>47655000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>47688000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>45981000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>45041000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>44997000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>46069000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>46651000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>54619000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>53497000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>51553000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>51916000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>53974000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>53735000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>54424000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>54772000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>53538000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>52720000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>57922000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>56945000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>58810000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>61240000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>61887000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>61973000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>62294000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>63718000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>65727000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>68865000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>68926000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>69013000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>67688000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>67572000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>66810000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>44725000000</v>
+      </c>
+      <c r="C30">
         <v>44334000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>46854000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>45746000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>44893000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>46408000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>46654000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>46919000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>48540000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>48576000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>46878000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>45941000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>45908000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>46984000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>47579000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>55552000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>54443000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>52504000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>52883000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>54946000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>54721000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>55415000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>55778000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>54548000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>53744000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>58951000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>57983000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>59853000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>62302000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>62954000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>63050000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>63380000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>64812000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>66829000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>69976000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>70041000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>70138000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>68816000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>68709000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>67953000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>117715000000</v>
+      </c>
+      <c r="C31">
         <v>116282000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>117208000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>120217000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>121416000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>119669000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>119307000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>116778000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>120112000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>119899000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>120700000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>118560000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>111723000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>114058000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>115095000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>121673000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>123687000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>118440000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>118310000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>124369000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>126644000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>122851000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>120406000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>118091000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>117033000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>129043000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>127136000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>127508000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>129143000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>129265000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>129495000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>130937000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>136263000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>138183000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>144266000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>143197000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>142927000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>141125000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>139263000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>139131000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>2359000</v>
+      </c>
+      <c r="C32">
         <v>2369700000</v>
       </c>
-      <c r="C32">
-        <v>2393800000</v>
-      </c>
       <c r="D32">
+        <v>2394000</v>
+      </c>
+      <c r="E32">
         <v>2399297000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2397100000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2419948000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2429700000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2448233000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>2462500000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>2479600000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>2479700000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>2475643000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>2469453000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>2493812000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>2504700000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>2508000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>2501580000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>2491408000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>2498000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>2514599000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>2521004000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>2536958000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>2553300000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>2558000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>2556000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>2676000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>2668000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>2662000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>2705000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>2721000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>2714500000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>2713000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>2700500000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>2702100000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>2710800000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>2706000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>2711400000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>2718200000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>2742300000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>2740800000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>-18820000000</v>
+      </c>
+      <c r="C33">
         <v>-17892000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-16525000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-18877000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-18960000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-17589000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-17912000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-17351000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-16705000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-15807000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>-16815000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-17510000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-18070000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-16623000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-16909000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-17037000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-18436000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>-16640000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>-16194000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>-15358000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-15127000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-14036000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-13108000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-13287000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>-13899000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>-9936000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>-10894000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-9455000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>-6350000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-6373000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-6582000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>-10384000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-11630000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>-14742000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>-14571000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-17491000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>-17750000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>-18773000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>-18051000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-18853000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>28028000000</v>
+      </c>
+      <c r="C34">
         <v>26293000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>24279000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>25143000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>24109000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>22177000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>21700000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>19819000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>19159000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>18263000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>18539000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>20618000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>21859000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>20209000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>19805000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>20447000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>21510000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>20034000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>19436000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>19765000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>18975000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>18207000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>16455000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>16087000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>16013000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>15184000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>17250000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>18996000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>17249000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>17881000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>18742000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>19279000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>22202000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>22386000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>24731000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>26613000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>27105000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>27078000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>25596000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>26347000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>34882000000</v>
+      </c>
+      <c r="C35">
         <v>33003000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>31493000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>33669000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>35653000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>32547000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>31988000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>29826000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>31100000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>31655000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>34720000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>36011000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>28138000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>29513000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>30092000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>30270000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>33627000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>31287000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>31286000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>35299000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>37733000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>34214000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>31592000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>30414000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>29467000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>31125000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>30598000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>32815000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>31526000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>30487000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>30345000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>32439000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>34453000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>33232000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>35417000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>36365000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>35608000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>34780000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>31543000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>32223000000</v>
       </c>
     </row>
